--- a/excels/Valley Mall 2025_draft.xlsx
+++ b/excels/Valley Mall 2025_draft.xlsx
@@ -1,56 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umbc-my.sharepoint.com/personal/jnairn1_umbc_edu/Documents/Documents/Class Semesters/Fall 2025/Computer Science 201/misc_projects/vex-fantasy-bot/excels/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_5721D0AEC8947D962C2DDAE99535969A5DB733C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E81147C6-0CD3-4491-94FD-E0F3780B88B0}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-26700" yWindow="1380" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Draft" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Draft" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+  <si>
+    <t>Drafter</t>
+  </si>
+  <si>
+    <t>Pick 1</t>
+  </si>
+  <si>
+    <t>Pick 2</t>
+  </si>
+  <si>
+    <t>Pick 3</t>
+  </si>
+  <si>
+    <t>Pick 4</t>
+  </si>
+  <si>
+    <t>Rowan || 593C</t>
+  </si>
+  <si>
+    <t>1727R</t>
+  </si>
+  <si>
+    <t>593C</t>
+  </si>
+  <si>
+    <t>Chad || 53E</t>
+  </si>
+  <si>
+    <t>53F</t>
+  </si>
+  <si>
+    <t>9080C</t>
+  </si>
+  <si>
+    <t>Edward || 929</t>
+  </si>
+  <si>
+    <t>929T</t>
+  </si>
+  <si>
+    <t>929S</t>
+  </si>
+  <si>
+    <t>Charlie || 929K</t>
+  </si>
+  <si>
+    <t>934Z</t>
+  </si>
+  <si>
+    <t>Leah || 929T</t>
+  </si>
+  <si>
+    <t>53D</t>
+  </si>
+  <si>
+    <t>Donald || 20850V</t>
+  </si>
+  <si>
+    <t>Jack || 934Z</t>
+  </si>
+  <si>
+    <t>1727K</t>
+  </si>
+  <si>
+    <t>Amelia || 20850A</t>
+  </si>
+  <si>
+    <t>Jerry || 20850Z</t>
+  </si>
+  <si>
+    <t>James || 9080S</t>
+  </si>
+  <si>
+    <t>9080S</t>
+  </si>
+  <si>
+    <t>Jeremiah || OBSR || 676V</t>
+  </si>
+  <si>
+    <t>Aidan || 7135Z</t>
+  </si>
+  <si>
+    <t>Michael || 676D</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
       <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="00FFFFFF"/>
       <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000F243E"/>
+        <fgColor rgb="FF0F243E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000c0a0f"/>
+        <fgColor rgb="FF0C0A0F"/>
       </patternFill>
     </fill>
   </fills>
@@ -64,111 +159,56 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -456,151 +496,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Drafter</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Pick 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Pick 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pick 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Pick 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>James || 9080S</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Chad || 53E</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Rowan || 593C</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Aidan || 7135Z</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Leah || 929T</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Edward || 929</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Amelia || 20850A</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Jeremiah || OBSR || 676V</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Jerry || 20850Z</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -608,18 +699,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excels/Valley Mall 2025_draft.xlsx
+++ b/excels/Valley Mall 2025_draft.xlsx
@@ -1,151 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umbc-my.sharepoint.com/personal/jnairn1_umbc_edu/Documents/Documents/Class Semesters/Fall 2025/Computer Science 201/misc_projects/vex-fantasy-bot/excels/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_5721D0AEC8947D962C2DDAE99535969A5DB733C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E81147C6-0CD3-4491-94FD-E0F3780B88B0}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="1380" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Draft" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Draft" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
-  <si>
-    <t>Drafter</t>
-  </si>
-  <si>
-    <t>Pick 1</t>
-  </si>
-  <si>
-    <t>Pick 2</t>
-  </si>
-  <si>
-    <t>Pick 3</t>
-  </si>
-  <si>
-    <t>Pick 4</t>
-  </si>
-  <si>
-    <t>Rowan || 593C</t>
-  </si>
-  <si>
-    <t>1727R</t>
-  </si>
-  <si>
-    <t>593C</t>
-  </si>
-  <si>
-    <t>Chad || 53E</t>
-  </si>
-  <si>
-    <t>53F</t>
-  </si>
-  <si>
-    <t>9080C</t>
-  </si>
-  <si>
-    <t>Edward || 929</t>
-  </si>
-  <si>
-    <t>929T</t>
-  </si>
-  <si>
-    <t>929S</t>
-  </si>
-  <si>
-    <t>Charlie || 929K</t>
-  </si>
-  <si>
-    <t>934Z</t>
-  </si>
-  <si>
-    <t>Leah || 929T</t>
-  </si>
-  <si>
-    <t>53D</t>
-  </si>
-  <si>
-    <t>Donald || 20850V</t>
-  </si>
-  <si>
-    <t>Jack || 934Z</t>
-  </si>
-  <si>
-    <t>1727K</t>
-  </si>
-  <si>
-    <t>Amelia || 20850A</t>
-  </si>
-  <si>
-    <t>Jerry || 20850Z</t>
-  </si>
-  <si>
-    <t>James || 9080S</t>
-  </si>
-  <si>
-    <t>9080S</t>
-  </si>
-  <si>
-    <t>Jeremiah || OBSR || 676V</t>
-  </si>
-  <si>
-    <t>Aidan || 7135Z</t>
-  </si>
-  <si>
-    <t>Michael || 676D</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="00FFFFFF"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0F243E"/>
+        <fgColor rgb="000F243E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0C0A0F"/>
+        <fgColor rgb="000c0a0f"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,56 +64,111 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="00FFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="00FFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="00FFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="00FFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="00FFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="00FFFFFF"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -496,202 +456,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="5" width="15" customWidth="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Drafter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pick 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Pick 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pick 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pick 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Jerry || 20850Z</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Aidan || 7135Z</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Rowan || 593C</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Jeremiah || OBSR || 676V</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>James || 9080S</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Amelia || 20850A</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Jack || 934Z</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Michael || 676D</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Chad || 53E</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Leah || 929T</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Edward || 929</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Donald || 20850V</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Charlie || 929K</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -699,12 +652,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excels/Valley Mall 2025_draft.xlsx
+++ b/excels/Valley Mall 2025_draft.xlsx
@@ -467,7 +467,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
@@ -506,7 +506,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Jerry || 20850Z</t>
+          <t>Aidan || 7135Z</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -517,7 +517,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Aidan || 7135Z</t>
+          <t>Michael || 676D</t>
         </is>
       </c>
       <c r="B3" s="2" t="n"/>
@@ -528,7 +528,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Rowan || 593C</t>
+          <t>Jeremiah || OBSR || 676V</t>
         </is>
       </c>
       <c r="B4" s="2" t="n"/>
@@ -539,7 +539,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Jeremiah || OBSR || 676V</t>
+          <t>Edward || 929</t>
         </is>
       </c>
       <c r="B5" s="2" t="n"/>
@@ -550,7 +550,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>James || 9080S</t>
+          <t>Donald || 20850V</t>
         </is>
       </c>
       <c r="B6" s="2" t="n"/>
@@ -561,7 +561,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Amelia || 20850A</t>
+          <t>Charlie || 929K</t>
         </is>
       </c>
       <c r="B7" s="2" t="n"/>
@@ -572,7 +572,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Jack || 934Z</t>
+          <t>Jerry || 20850Z</t>
         </is>
       </c>
       <c r="B8" s="2" t="n"/>
@@ -583,7 +583,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Michael || 676D</t>
+          <t>Rowan || 593C</t>
         </is>
       </c>
       <c r="B9" s="2" t="n"/>
@@ -594,7 +594,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Chad || 53E</t>
+          <t>James || 9080S</t>
         </is>
       </c>
       <c r="B10" s="2" t="n"/>
@@ -605,7 +605,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Leah || 929T</t>
+          <t>Jack || 934Z</t>
         </is>
       </c>
       <c r="B11" s="2" t="n"/>
@@ -616,7 +616,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Edward || 929</t>
+          <t>Leah || 929T</t>
         </is>
       </c>
       <c r="B12" s="2" t="n"/>
@@ -627,7 +627,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Donald || 20850V</t>
+          <t>Chad || 53E</t>
         </is>
       </c>
       <c r="B13" s="2" t="n"/>
@@ -638,7 +638,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Charlie || 929K</t>
+          <t>Amelia || 20850A</t>
         </is>
       </c>
       <c r="B14" s="2" t="n"/>
